--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-MarketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-MarketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:26:28+00:00</t>
+    <t>2024-05-21T07:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
